--- a/CDM/Dash_eng/join_table/join_table_observation.xlsx
+++ b/CDM/Dash_eng/join_table/join_table_observation.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hong\Desktop\CDM-dash\응급실\_data\join_table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hsj28\Desktop\CDM-dash\응급실\_data\join_table\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{957A41B5-3A2F-4386-9E81-62FE2F76EE35}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16632" windowHeight="8112"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,13 +42,14 @@
     <t>observation_concept_id</t>
   </si>
   <si>
-    <t>56810-5</t>
+    <t>KTAS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -403,20 +405,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.09765625" customWidth="1"/>
-    <col min="2" max="2" width="25.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.125" customWidth="1"/>
+    <col min="2" max="2" width="25.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -427,12 +428,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1">
-        <v>40759929</v>
+        <v>0</v>
       </c>
       <c r="C2" s="1">
         <v>40759929</v>
@@ -441,5 +442,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>